--- a/TABLA ATRIBUTOS.xlsx
+++ b/TABLA ATRIBUTOS.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cecil\Documents\obligatorioBsDs1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BFA499-3D3D-4876-8C47-F74B0BEA3FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E98BDD-C624-40F2-8E92-A38A2FD26153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$C$29</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Tabla</t>
   </si>
@@ -60,9 +63,6 @@
     <t>ESPECIALIDADES_PER_SALUD</t>
   </si>
   <si>
-    <t>ESPECIALIDADES_PER_SALUD(Cedula) =&gt; PERSONAS (Cedula)</t>
-  </si>
-  <si>
     <t>PACIENTES</t>
   </si>
   <si>
@@ -75,16 +75,7 @@
     <t>AGENDAN</t>
   </si>
   <si>
-    <t>NombreCentroVacunacion</t>
-  </si>
-  <si>
     <t>NombreVacuna</t>
-  </si>
-  <si>
-    <t>AGENDAN(CedulaPaciente) =&gt; PACIENTES(CedulaPaciente)</t>
-  </si>
-  <si>
-    <t>AGENDAN(NombreCentroVacunacion, NombreVacuna) =&gt;  CENTROS_VAC_PROVEEN_VAC(NombreCentro,NombreVacuna)</t>
   </si>
   <si>
     <t>AGENDAN_HORAS_DIAS</t>
@@ -123,8 +114,89 @@
     <t>CedulaPersonalDeSalud</t>
   </si>
   <si>
-    <r>
-      <t>SUMINISTRAN(</t>
+    <t>GRUPOS_VAC</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>GRUPOS_VAC (NombreVacuna) =&gt; VACUNAS(NombreVacuna)</t>
+  </si>
+  <si>
+    <t>GRUPOS_VAC_DESCRIPCION</t>
+  </si>
+  <si>
+    <t>GRUPOS_VAC_DESCRIPCION(Id) =&gt; GRUPOS_VAC(Id)</t>
+  </si>
+  <si>
+    <t>VACUNAS</t>
+  </si>
+  <si>
+    <t>VACUNAS(NombreLaboratorio)=&gt; LABORATORIOS(Nombre)</t>
+  </si>
+  <si>
+    <t>CENTROS_VAC</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>EFECTOS_ADV</t>
+  </si>
+  <si>
+    <t>IdSintoma</t>
+  </si>
+  <si>
+    <t>EFECTOS_ADV_DESCR</t>
+  </si>
+  <si>
+    <t>EFECTOS_ADV_DESCR(IdSintoma) =&gt; EFECTOS_ADV(IdSintoma)</t>
+  </si>
+  <si>
+    <t>LABORATORIOS</t>
+  </si>
+  <si>
+    <t>LABORATORIOS_TEL(Nombre) =&gt; LABORATORIOS(Nombre)</t>
+  </si>
+  <si>
+    <t>CENTROS_VAC_PROVEEN_VAC</t>
+  </si>
+  <si>
+    <t>NombreCentro</t>
+  </si>
+  <si>
+    <t>CENTROS_VAC_PROVEEN_VAC(NombreCentro) =&gt; CENTROS_VAC(Nombre)</t>
+  </si>
+  <si>
+    <t>CENTROS_VAC_PROVEEN_VAC(NombreVacuna) =&gt; VACUNAS(Nombre)</t>
+  </si>
+  <si>
+    <t>VAC_GEN_EFECTOS_ADV</t>
+  </si>
+  <si>
+    <t>VAC_GEN_EFECTOS_ADV(NombreVacuna) =&gt; VACUNAS(Nombre)</t>
+  </si>
+  <si>
+    <t>VAC_GEN_EFECTOS_ADV(IdSintoma) =&gt; EFECTOS_ADV(IdSintoma)</t>
+  </si>
+  <si>
+    <t>VACUNAN</t>
+  </si>
+  <si>
+    <t>idVacunado</t>
+  </si>
+  <si>
+    <t>ESPECIALIDADES_PER_SALUD(Cedula) =&gt; PERSONAL_SALUD (Cedula)</t>
+  </si>
+  <si>
+    <t>AGENDAN1(CedulaPaciente) =&gt; PACIENTES(CedulaPaciente)</t>
+  </si>
+  <si>
+    <t>AGENDAN2(NombreCentroVacunacion, NombreVacuna) =&gt;  CENTROS_VAC_PROVEEN_VAC(NombreCentro,NombreVacuna)</t>
+  </si>
+  <si>
+    <r>
+      <t>SUMINISTRAN1(</t>
     </r>
     <r>
       <rPr>
@@ -148,7 +220,7 @@
   </si>
   <si>
     <r>
-      <t>SUMINISTRAN(</t>
+      <t>SUMINISTRAN2(</t>
     </r>
     <r>
       <rPr>
@@ -171,83 +243,11 @@
     </r>
   </si>
   <si>
-    <t>GRUPOS_VAC</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>GRUPOS_VAC (NombreVacuna) =&gt; VACUNAS(NombreVacuna)</t>
-  </si>
-  <si>
-    <t>GRUPOS_VAC_DESCRIPCION</t>
-  </si>
-  <si>
-    <t>GRUPOS_VAC_DESCRIPCION(Id) =&gt; GRUPOS_VAC(Id)</t>
-  </si>
-  <si>
-    <t>VACUNAS</t>
-  </si>
-  <si>
-    <t>VACUNAS(NombreLaboratorio)=&gt; LABORATORIOS(Nombre)</t>
-  </si>
-  <si>
-    <t>CENTROS_VAC</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>EFECTOS_ADV</t>
-  </si>
-  <si>
-    <t>IdSintoma</t>
-  </si>
-  <si>
-    <t>EFECTOS_ADV_DESCR</t>
-  </si>
-  <si>
-    <t>EFECTOS_ADV_DESCR(IdSintoma) =&gt; EFECTOS_ADV(IdSintoma)</t>
-  </si>
-  <si>
-    <t>LABORATORIOS</t>
-  </si>
-  <si>
-    <t>LABORATORIOS_TEL(Nombre) =&gt; LABORATORIOS(Nombre)</t>
-  </si>
-  <si>
-    <t>CENTROS_VAC_PROVEEN_VAC</t>
-  </si>
-  <si>
-    <t>NombreCentro</t>
-  </si>
-  <si>
-    <t>CENTROS_VAC_PROVEEN_VAC(NombreCentro) =&gt; CENTROS_VAC(Nombre)</t>
-  </si>
-  <si>
-    <t>CENTROS_VAC_PROVEEN_VAC(NombreVacuna) =&gt; VACUNAS(Nombre)</t>
-  </si>
-  <si>
-    <t>VAC_GEN_EFECTOS_ADV</t>
-  </si>
-  <si>
-    <t>VAC_GEN_EFECTOS_ADV(NombreVacuna) =&gt; VACUNAS(Nombre)</t>
-  </si>
-  <si>
-    <t>VAC_GEN_EFECTOS_ADV(IdSintoma) =&gt; EFECTOS_ADV(IdSintoma)</t>
-  </si>
-  <si>
-    <t>VACUNAN</t>
-  </si>
-  <si>
-    <t>idVacunador</t>
-  </si>
-  <si>
-    <t>idVacunado</t>
-  </si>
-  <si>
-    <r>
-      <t>VACUNAN (</t>
+    <t>LABORATORIOS_TEL</t>
+  </si>
+  <si>
+    <r>
+      <t>VACUNAN1(</t>
     </r>
     <r>
       <rPr>
@@ -271,7 +271,7 @@
   </si>
   <si>
     <r>
-      <t>VACUNAN (</t>
+      <t>VACUNAN2(</t>
     </r>
     <r>
       <rPr>
@@ -298,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,13 +332,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -360,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -542,11 +535,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,65 +663,86 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -909,17 +1025,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.5546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -968,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -976,259 +1095,268 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>26</v>
+      <c r="C14" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="34"/>
+      <c r="B25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="B26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="B28" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="C28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A27:A28"/>
+  <mergeCells count="13">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>